--- a/bim2sim/plugins/PluginHydraulicSystem/bim2sim_hydraulicsystem/assets/hydraulic_components.xlsx
+++ b/bim2sim/plugins/PluginHydraulicSystem/bim2sim_hydraulicsystem/assets/hydraulic_components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dja-jho\Testing\BIM2SIM_HydraulicSystem\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02_Masterarbeit\13_Datenbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75316BA1-7F2F-471D-8856-625EAE59F9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F506F4-D472-4A7B-9391-53004946F77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA4435EC-6D29-4471-A9A3-A3CE4E49EB19}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{AA4435EC-6D29-4471-A9A3-A3CE4E49EB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Kupferrohre" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
   <si>
     <t>zul. Betriebs- druck*) (bar)</t>
   </si>
@@ -1510,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4279D3BF-76C8-4CFB-97B8-5A658E50E056}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,29 +2397,6 @@
         <v>69</v>
       </c>
       <c r="G38">
-        <v>7850</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>250</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>36.1</v>
-      </c>
-      <c r="D39">
-        <v>44.45</v>
-      </c>
-      <c r="E39">
-        <v>80.55</v>
-      </c>
-      <c r="F39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39">
         <v>7850</v>
       </c>
     </row>
@@ -3426,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD95FE7F-A141-433B-9809-3E2006FF7507}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>

--- a/bim2sim/plugins/PluginHydraulicSystem/bim2sim_hydraulicsystem/assets/hydraulic_components.xlsx
+++ b/bim2sim/plugins/PluginHydraulicSystem/bim2sim_hydraulicsystem/assets/hydraulic_components.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02_Masterarbeit\13_Datenbank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Git\bim2sim-Diss\bim2sim\bim2sim\plugins\PluginHydraulicSystem\bim2sim_hydraulicsystem\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F506F4-D472-4A7B-9391-53004946F77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648A74F-F6F9-410D-A398-5C406941DD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{AA4435EC-6D29-4471-A9A3-A3CE4E49EB19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AA4435EC-6D29-4471-A9A3-A3CE4E49EB19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kupferrohre" sheetId="4" r:id="rId1"/>
-    <sheet name="Stahlrohre" sheetId="11" r:id="rId2"/>
-    <sheet name="Kupferohre_2" sheetId="12" r:id="rId3"/>
-    <sheet name="Profilierte Flachheizkörper" sheetId="7" r:id="rId4"/>
-    <sheet name="Stahlrohrradiatoren" sheetId="6" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId6"/>
-    <sheet name="Fensterbankradiatoren" sheetId="2" r:id="rId7"/>
-    <sheet name="Tabelle5" sheetId="5" r:id="rId8"/>
-    <sheet name="Tabelle2" sheetId="8" r:id="rId9"/>
-    <sheet name="Tabelle3" sheetId="9" r:id="rId10"/>
-    <sheet name="Tabelle4" sheetId="10" r:id="rId11"/>
+    <sheet name="Stahlrohre" sheetId="11" r:id="rId1"/>
+    <sheet name="Kupferohre" sheetId="12" r:id="rId2"/>
+    <sheet name="Profilierte Flachheizkörper" sheetId="7" r:id="rId3"/>
+    <sheet name="Fensterbankradiatoren" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,84 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
-  <si>
-    <t>zul. Betriebs- druck*) (bar)</t>
-  </si>
-  <si>
-    <t>28 x 1,5</t>
-  </si>
-  <si>
-    <t>10x 1</t>
-  </si>
-  <si>
-    <t>42 x 1,2</t>
-  </si>
-  <si>
-    <t>12 x 1</t>
-  </si>
-  <si>
-    <t>64 x 2</t>
-  </si>
-  <si>
-    <t>15 x 0,8</t>
-  </si>
-  <si>
-    <t>76,1 x 2</t>
-  </si>
-  <si>
-    <t>15 x 1</t>
-  </si>
-  <si>
-    <t>88,9 x 2</t>
-  </si>
-  <si>
-    <t>18 x 1</t>
-  </si>
-  <si>
-    <t>108 x 2,5</t>
-  </si>
-  <si>
-    <t>22 x 1</t>
-  </si>
-  <si>
-    <t>133 x3</t>
-  </si>
-  <si>
-    <t>28 x 1</t>
-  </si>
-  <si>
-    <t>159 x 3</t>
-  </si>
-  <si>
-    <t>10 x 0,6</t>
-  </si>
-  <si>
-    <t>12 x 0,7</t>
-  </si>
-  <si>
-    <t>14 x 0,8</t>
-  </si>
-  <si>
-    <t>35x1,2</t>
-  </si>
-  <si>
-    <t>54x1,5</t>
-  </si>
-  <si>
-    <t>„Eine Berechnungsgrundlage für die energetische Bewertung von Verteilsystemen liefert die DIN V 18599, Teil 5: Heizung, Teil 7: Kaltwasser und Teil 8: Trinkwarmwasser. Auch wenn diese Norm zunächst nur für Nichtwohngebäude anzuwenden ist, ermöglicht sie im Vergleich zur DIN 4701-10 die Berücksichtigung wichtiger Einflussgrößen für die Energiebilanz.“ (“Recknagel - Taschenbuch für Heizung + Klimatechnik 2017/2018: Einschließlich Trinkwasser- und Kältetechnik sowie Energiekonzepte”, 2016, p. 1349)</t>
-  </si>
-  <si>
-    <t>Abmessung Aussendurchmesser X Wanddicke (mm)</t>
-  </si>
-  <si>
-    <t>Volumen (l/m)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>Normwärmeleistungen für Fensterbankradiatoren</t>
-  </si>
-  <si>
-    <t>inhalt</t>
   </si>
   <si>
     <t>Heizkörperexponent n = 1,3</t>
@@ -156,18 +74,6 @@
     <t>Typ</t>
   </si>
   <si>
-    <t>Wasser</t>
-  </si>
-  <si>
-    <t>Masse</t>
-  </si>
-  <si>
-    <t>meleistung</t>
-  </si>
-  <si>
-    <t>in kg/m</t>
-  </si>
-  <si>
     <t>Nabenabstand N in mm</t>
   </si>
   <si>
@@ -175,69 +81,6 @@
   </si>
   <si>
     <t>Heizkörperexponent</t>
-  </si>
-  <si>
-    <t>Normwärmeleistungen für glattwandig profilierte Flachheizkörper</t>
-  </si>
-  <si>
-    <t>Hohe</t>
-  </si>
-  <si>
-    <t>Naben-</t>
-  </si>
-  <si>
-    <t>IYp</t>
-  </si>
-  <si>
-    <t>Bau-</t>
-  </si>
-  <si>
-    <t>Heiz-</t>
-  </si>
-  <si>
-    <t>Normwår-</t>
-  </si>
-  <si>
-    <t>H in</t>
-  </si>
-  <si>
-    <t>abstand</t>
-  </si>
-  <si>
-    <t>tiefe T</t>
-  </si>
-  <si>
-    <t>körper-</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>N in mm</t>
-  </si>
-  <si>
-    <t>In mm</t>
-  </si>
-  <si>
-    <t>exponent</t>
-  </si>
-  <si>
-    <t>(75/65/200C)</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>in Wim</t>
-  </si>
-  <si>
-    <t>l/m</t>
-  </si>
-  <si>
-    <t>Baulången L</t>
-  </si>
-  <si>
-    <t>3000 mm</t>
   </si>
   <si>
     <t>Normwärmeleistung ((75/65/20 °C) in W/m</t>
@@ -283,16 +126,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,471 +172,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8095</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0728A30-145B-E992-CBAD-90879721E136}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="1524000"/>
-          <a:ext cx="11438095" cy="3742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>503428</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>75548</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC60594-4970-4F3F-E73E-1DC739C852E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="5905500"/>
-          <a:ext cx="11171428" cy="5219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>693809</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>45262</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6CD53F-4AFB-FE68-A127-3FE8D0142A70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="11811000"/>
-          <a:ext cx="12123809" cy="18904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>54648</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>81970</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077B8452-9AB9-6B07-DD6E-758910A1BCA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11867029" y="3597089"/>
-          <a:ext cx="11047619" cy="3152381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>389113</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>26309</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591DAAFB-658F-8FC3-C7D5-3DEB8A7165FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28194000" y="9144000"/>
-          <a:ext cx="11295238" cy="18123809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>469808</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>758724</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2110205-7E98-C6B7-944E-56628FCC7FFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1231808" y="3119438"/>
-          <a:ext cx="7146916" cy="11144249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>36667</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>37167</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB19A001-9779-8C55-7EE9-FC1948022379}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14478000" y="7429500"/>
-          <a:ext cx="11466667" cy="7466667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>570095</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>74024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6EDF32-12CB-3DC0-B45B-DE7254C2A7C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10668000" y="16002000"/>
-          <a:ext cx="11238095" cy="17409524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>639014</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133818</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB9DF0A-22CF-9D38-AA23-2BBF8E081EDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5295900" y="971550"/>
-          <a:ext cx="6011114" cy="3353268"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>524759</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>299</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A99F84-917B-E99D-91EC-2916DC301400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="2047875"/>
-          <a:ext cx="6335009" cy="2143424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,421 +470,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C079EA-41C3-4B24-BDBC-D08E7C390A8A}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C2">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C4">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0.121</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="C7">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="C8">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="C9">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.314</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="C11">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="C12">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.48349999999999999</v>
-      </c>
-      <c r="C13">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>1.232</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>2.0430000000000001</v>
-      </c>
-      <c r="C15">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>2.827</v>
-      </c>
-      <c r="C16">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>5.6609999999999996</v>
-      </c>
-      <c r="C18">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>8.3320000000000007</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>12.667999999999999</v>
-      </c>
-      <c r="C20">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>18.385000000000002</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21">
-        <v>8960</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9BFC4B-66F1-4393-895D-7A8E1F5C457D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F892C0-6D4B-4E83-B72F-A3FD76036113}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4279D3BF-76C8-4CFB-97B8-5A658E50E056}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -1528,25 +489,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,7 +527,7 @@
         <v>0.38</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>7850</v>
@@ -1589,7 +550,7 @@
         <v>0.6</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>7850</v>
@@ -1612,7 +573,7 @@
         <v>0.75</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>7850</v>
@@ -1635,7 +596,7 @@
         <v>0.83</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>7850</v>
@@ -1658,7 +619,7 @@
         <v>1.02</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>7850</v>
@@ -1681,7 +642,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>7850</v>
@@ -1704,7 +665,7 @@
         <v>1.19</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>7850</v>
@@ -1727,7 +688,7 @@
         <v>1.48</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>7850</v>
@@ -1750,7 +711,7 @@
         <v>1.51</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>7850</v>
@@ -1773,7 +734,7 @@
         <v>1.64</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>7850</v>
@@ -1796,7 +757,7 @@
         <v>1.91</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>7850</v>
@@ -1819,7 +780,7 @@
         <v>2.08</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>7850</v>
@@ -1842,7 +803,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>7850</v>
@@ -1865,7 +826,7 @@
         <v>2.9</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>7850</v>
@@ -1888,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>7850</v>
@@ -1911,7 +872,7 @@
         <v>3.64</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G17">
         <v>7850</v>
@@ -1934,7 +895,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>7850</v>
@@ -1957,7 +918,7 @@
         <v>4.45</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>7850</v>
@@ -1980,7 +941,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>7850</v>
@@ -2003,7 +964,7 @@
         <v>5.26</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G21">
         <v>7850</v>
@@ -2026,7 +987,7 @@
         <v>5.73</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>7850</v>
@@ -2049,7 +1010,7 @@
         <v>6.57</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>7850</v>
@@ -2072,7 +1033,7 @@
         <v>7.62</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>7850</v>
@@ -2095,7 +1056,7 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G25">
         <v>7850</v>
@@ -2118,7 +1079,7 @@
         <v>8.66</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G26">
         <v>7850</v>
@@ -2141,7 +1102,7 @@
         <v>9.82</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G27">
         <v>7850</v>
@@ -2164,7 +1125,7 @@
         <v>11.57</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G28">
         <v>7850</v>
@@ -2187,7 +1148,7 @@
         <v>14.27</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G29">
         <v>7850</v>
@@ -2210,7 +1171,7 @@
         <v>17.25</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G30">
         <v>7850</v>
@@ -2233,7 +1194,7 @@
         <v>18.84</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G31">
         <v>7850</v>
@@ -2256,7 +1217,7 @@
         <v>23.26</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G32">
         <v>7850</v>
@@ -2279,7 +1240,7 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G33">
         <v>7850</v>
@@ -2302,7 +1263,7 @@
         <v>27.01</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G34">
         <v>7850</v>
@@ -2325,7 +1286,7 @@
         <v>32.56</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G35">
         <v>7850</v>
@@ -2348,7 +1309,7 @@
         <v>34.82</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G36">
         <v>7850</v>
@@ -2371,7 +1332,7 @@
         <v>38.11</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G37">
         <v>7850</v>
@@ -2394,7 +1355,7 @@
         <v>43.42</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G38">
         <v>7850</v>
@@ -2406,7 +1367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CC573A-5087-46E6-9620-CEE282A3EFD6}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -2425,25 +1386,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2463,7 +1424,7 @@
         <v>0.3</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>8960</v>
@@ -2486,7 +1447,7 @@
         <v>0.39</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>8960</v>
@@ -2509,7 +1470,7 @@
         <v>0.53</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>8960</v>
@@ -2532,7 +1493,7 @@
         <v>0.68</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>8960</v>
@@ -2555,7 +1516,7 @@
         <v>0.91</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>8960</v>
@@ -2578,7 +1539,7 @@
         <v>1.61</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>8960</v>
@@ -2601,7 +1562,7 @@
         <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>8960</v>
@@ -2624,7 +1585,7 @@
         <v>2.9</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>8960</v>
@@ -2647,7 +1608,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>8960</v>
@@ -2670,7 +1631,7 @@
         <v>6.32</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>8960</v>
@@ -2693,7 +1654,7 @@
         <v>8.25</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>8960</v>
@@ -2716,7 +1677,7 @@
         <v>10.55</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>8960</v>
@@ -2739,7 +1700,7 @@
         <v>15.76</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>8960</v>
@@ -2762,7 +1723,7 @@
         <v>23.65</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>8960</v>
@@ -2785,7 +1746,7 @@
         <v>31.56</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>8960</v>
@@ -2808,7 +1769,7 @@
         <v>53.87</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>8960</v>
@@ -2831,7 +1792,7 @@
         <v>75.8</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>8960</v>
@@ -2842,12 +1803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4AC88-38D9-4C84-AD36-EA16909D4100}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,31 +1825,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2911,7 +1872,7 @@
         <v>11.6</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2934,7 +1895,7 @@
         <v>14.1</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2963,7 +1924,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2986,7 +1947,7 @@
         <v>23.1</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3009,7 +1970,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3032,7 +1993,7 @@
         <v>15.2</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,7 +2016,7 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3084,7 +2045,7 @@
         <v>28.5</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3107,7 +2068,7 @@
         <v>32.700000000000003</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3130,7 +2091,7 @@
         <v>48.7</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3153,7 +2114,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3176,7 +2137,7 @@
         <v>22.1</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3205,7 +2166,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3228,7 +2189,7 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3251,7 +2212,7 @@
         <v>58.1</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3274,7 +2235,7 @@
         <v>24.3</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3297,7 +2258,7 @@
         <v>31.5</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3326,7 +2287,7 @@
         <v>49.9</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3349,7 +2310,7 @@
         <v>57.8</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3372,12 +2333,12 @@
         <v>86.2</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3385,41 +2346,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E927DE2F-2E0A-4489-9076-4F026C7A9EBB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CG262" sqref="CG262"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD95FE7F-A141-433B-9809-3E2006FF7507}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E6B0A8-2D67-4CB1-A187-32AB4D6088EE}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="CD296" sqref="CD296:CD297"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,31 +2377,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4060,572 +2992,7 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAAD34D-3FE4-42C2-AAAF-A29564708330}">
-  <dimension ref="Q32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="32" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F89F3-D74B-468A-9004-D3B4B816BE2B}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
-      <c r="F6">
-        <v>1.25</v>
-      </c>
-      <c r="G6">
-        <v>368</v>
-      </c>
-      <c r="H6">
-        <v>1.4</v>
-      </c>
-      <c r="I6">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
-      <c r="F7">
-        <v>1.26</v>
-      </c>
-      <c r="G7">
-        <v>531</v>
-      </c>
-      <c r="H7">
-        <v>1.4</v>
-      </c>
-      <c r="I7">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>350</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>1.29</v>
-      </c>
-      <c r="G8">
-        <v>823</v>
-      </c>
-      <c r="H8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I8">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>1.28</v>
-      </c>
-      <c r="G9">
-        <v>1018</v>
-      </c>
-      <c r="H9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I9">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>155</v>
-      </c>
-      <c r="F10">
-        <v>1.29</v>
-      </c>
-      <c r="G10">
-        <v>1488</v>
-      </c>
-      <c r="H10">
-        <v>6.8</v>
-      </c>
-      <c r="I10">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-      <c r="F11">
-        <v>1.26</v>
-      </c>
-      <c r="G11">
-        <v>500</v>
-      </c>
-      <c r="H11">
-        <v>1.8</v>
-      </c>
-      <c r="I11">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>65</v>
-      </c>
-      <c r="F12">
-        <v>1.28</v>
-      </c>
-      <c r="G12">
-        <v>738</v>
-      </c>
-      <c r="H12">
-        <v>1.8</v>
-      </c>
-      <c r="I12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>500</v>
-      </c>
-      <c r="B13">
-        <v>450</v>
-      </c>
-      <c r="D13">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>1.29</v>
-      </c>
-      <c r="G13">
-        <v>1124</v>
-      </c>
-      <c r="H13">
-        <v>5.3</v>
-      </c>
-      <c r="I13">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>1.29</v>
-      </c>
-      <c r="G14">
-        <v>1432</v>
-      </c>
-      <c r="H14">
-        <v>5.3</v>
-      </c>
-      <c r="I14">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>155</v>
-      </c>
-      <c r="F15">
-        <v>1.3</v>
-      </c>
-      <c r="G15">
-        <v>1981</v>
-      </c>
-      <c r="H15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I15">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>65</v>
-      </c>
-      <c r="F16">
-        <v>1.26</v>
-      </c>
-      <c r="G16">
-        <v>588</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>65</v>
-      </c>
-      <c r="F17">
-        <v>1.29</v>
-      </c>
-      <c r="G17">
-        <v>869</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>600</v>
-      </c>
-      <c r="B18">
-        <v>550</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>1.29</v>
-      </c>
-      <c r="G18">
-        <v>1318</v>
-      </c>
-      <c r="H18">
-        <v>6.1</v>
-      </c>
-      <c r="I18">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>1.29</v>
-      </c>
-      <c r="G19">
-        <v>1683</v>
-      </c>
-      <c r="H19">
-        <v>6.1</v>
-      </c>
-      <c r="I19">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>33</v>
-      </c>
-      <c r="E20">
-        <v>155</v>
-      </c>
-      <c r="F20">
-        <v>1.3</v>
-      </c>
-      <c r="G20">
-        <v>2303</v>
-      </c>
-      <c r="H20">
-        <v>10.1</v>
-      </c>
-      <c r="I20">
-        <v>58.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>65</v>
-      </c>
-      <c r="F21">
-        <v>1.28</v>
-      </c>
-      <c r="G21">
-        <v>847</v>
-      </c>
-      <c r="H21">
-        <v>2.8</v>
-      </c>
-      <c r="I21">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
-      <c r="F22">
-        <v>1.3</v>
-      </c>
-      <c r="G22">
-        <v>1199</v>
-      </c>
-      <c r="H22">
-        <v>2.8</v>
-      </c>
-      <c r="I22">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>900</v>
-      </c>
-      <c r="B23">
-        <v>850</v>
-      </c>
-      <c r="D23">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>1.33</v>
-      </c>
-      <c r="G23">
-        <v>1843</v>
-      </c>
-      <c r="H23">
-        <v>8.4</v>
-      </c>
-      <c r="I23">
-        <v>52.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <v>1.32</v>
-      </c>
-      <c r="G24">
-        <v>2269</v>
-      </c>
-      <c r="H24">
-        <v>8.4</v>
-      </c>
-      <c r="I24">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>33</v>
-      </c>
-      <c r="E25">
-        <v>155</v>
-      </c>
-      <c r="F25">
-        <v>1.33</v>
-      </c>
-      <c r="G25">
-        <v>3232</v>
-      </c>
-      <c r="H25">
-        <v>14.1</v>
-      </c>
-      <c r="I25">
-        <v>87.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26">
-        <v>400</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bim2sim/plugins/PluginHydraulicSystem/bim2sim_hydraulicsystem/assets/hydraulic_components.xlsx
+++ b/bim2sim/plugins/PluginHydraulicSystem/bim2sim_hydraulicsystem/assets/hydraulic_components.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Git\bim2sim-Diss\bim2sim\bim2sim\plugins\PluginHydraulicSystem\bim2sim_hydraulicsystem\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dja-jho\Git\BIM2SIM\bim2sim\plugins\PluginHydraulicSystem\bim2sim_hydraulicsystem\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648A74F-F6F9-410D-A398-5C406941DD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0AA8FD-BA87-4C97-99DB-5812BCE1B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AA4435EC-6D29-4471-A9A3-A3CE4E49EB19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AA4435EC-6D29-4471-A9A3-A3CE4E49EB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Stahlrohre" sheetId="11" r:id="rId1"/>
     <sheet name="Kupferohre" sheetId="12" r:id="rId2"/>
-    <sheet name="Profilierte Flachheizkörper" sheetId="7" r:id="rId3"/>
+    <sheet name="Profilierte Flachheizkörper" sheetId="13" r:id="rId3"/>
     <sheet name="Fensterbankradiatoren" sheetId="2" r:id="rId4"/>
+    <sheet name="Profilierte Flachheizkörper alt" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
   <si>
     <t>Normwärmeleistungen für Fensterbankradiatoren</t>
   </si>
@@ -121,6 +120,15 @@
   <si>
     <t>Außendurchmesser [mm]</t>
   </si>
+  <si>
+    <t>Trendlinie a</t>
+  </si>
+  <si>
+    <t>Trendlinie y = a * x ^ e</t>
+  </si>
+  <si>
+    <t>Trendlinie e</t>
+  </si>
 </sst>
 </file>
 
@@ -155,8 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1804,26 +1816,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4AC88-38D9-4C84-AD36-EA16909D4100}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB04C999-6321-48C7-9BF4-71DB06869876}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1851,497 +1856,414 @@
       <c r="I1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>65</v>
-      </c>
-      <c r="E2">
-        <v>1.25</v>
-      </c>
-      <c r="F2">
-        <v>436</v>
-      </c>
-      <c r="G2">
-        <v>2.7</v>
-      </c>
-      <c r="H2">
-        <v>11.6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>65</v>
-      </c>
-      <c r="E3">
-        <v>1.25</v>
-      </c>
-      <c r="F3">
-        <v>605</v>
-      </c>
-      <c r="G3">
-        <v>2.7</v>
-      </c>
-      <c r="H3">
-        <v>14.1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>880</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>13120</v>
+      </c>
+      <c r="K2">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>350</v>
       </c>
-      <c r="B4">
+      <c r="B3" s="1">
         <v>300</v>
       </c>
-      <c r="C4">
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.3647</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1150</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>15570</v>
+      </c>
+      <c r="K3">
+        <v>-0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1">
+        <v>155</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.3749</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1679</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>16130</v>
+      </c>
+      <c r="K4">
+        <v>-0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E4">
-        <v>1.27</v>
-      </c>
-      <c r="F4">
-        <v>915</v>
-      </c>
-      <c r="G4">
-        <v>5.4</v>
-      </c>
-      <c r="H4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5">
+      <c r="E5" s="1">
+        <v>1.2867999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1082</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>12711</v>
+      </c>
+      <c r="K5">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>450</v>
+      </c>
+      <c r="C6" s="1">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="E5">
-        <v>1.28</v>
-      </c>
-      <c r="F5">
-        <v>1102</v>
-      </c>
-      <c r="G5">
-        <v>5.4</v>
-      </c>
-      <c r="H5">
-        <v>23.1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="E6" s="1">
+        <v>1.3002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1380</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>13228</v>
+      </c>
+      <c r="K6">
+        <v>-0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>33</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="1">
         <v>155</v>
       </c>
-      <c r="E6">
-        <v>1.3</v>
-      </c>
-      <c r="F6">
-        <v>1566</v>
-      </c>
-      <c r="G6">
-        <v>8.1</v>
-      </c>
-      <c r="H6">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>1.25</v>
-      </c>
-      <c r="F7">
-        <v>586</v>
-      </c>
-      <c r="G7">
-        <v>3.5</v>
-      </c>
-      <c r="H7">
-        <v>15.2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>65</v>
-      </c>
-      <c r="E8">
-        <v>1.27</v>
-      </c>
-      <c r="F8">
-        <v>808</v>
-      </c>
-      <c r="G8">
-        <v>3.5</v>
-      </c>
-      <c r="H8">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>500</v>
-      </c>
-      <c r="B9">
-        <v>450</v>
-      </c>
-      <c r="C9">
+      <c r="E7" s="1">
+        <v>1.3167</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1978</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>15633</v>
+      </c>
+      <c r="K7">
+        <v>-0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>21</v>
       </c>
-      <c r="D9">
+      <c r="D8" s="1">
         <v>100</v>
       </c>
-      <c r="E9">
-        <v>1.3</v>
-      </c>
-      <c r="F9">
-        <v>1212</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>28.5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="E8" s="1">
+        <v>1.3207</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1249</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H8" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>11833</v>
+      </c>
+      <c r="K8">
+        <v>-0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>600</v>
+      </c>
+      <c r="B9" s="1">
+        <v>550</v>
+      </c>
+      <c r="C9" s="1">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="D9" s="1">
         <v>100</v>
       </c>
-      <c r="E10">
-        <v>1.29</v>
-      </c>
-      <c r="F10">
-        <v>1461</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="E9" s="1">
+        <v>1.3162</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1629</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H9" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>13943</v>
+      </c>
+      <c r="K9">
+        <v>-0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="D10" s="1">
         <v>155</v>
       </c>
-      <c r="E11">
-        <v>1.31</v>
-      </c>
-      <c r="F11">
-        <v>2124</v>
-      </c>
-      <c r="G11">
-        <v>10.5</v>
-      </c>
-      <c r="H11">
-        <v>48.7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>65</v>
-      </c>
-      <c r="E12">
-        <v>1.27</v>
-      </c>
-      <c r="F12">
-        <v>683</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>65</v>
-      </c>
-      <c r="E13">
-        <v>1.28</v>
-      </c>
-      <c r="F13">
-        <v>943</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>22.1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>600</v>
-      </c>
-      <c r="B14">
-        <v>550</v>
-      </c>
-      <c r="C14">
+      <c r="E10" s="1">
+        <v>1.3185</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2233</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>13864</v>
+      </c>
+      <c r="K10">
+        <v>-0.497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>21</v>
       </c>
-      <c r="D14">
+      <c r="D11" s="1">
         <v>100</v>
       </c>
-      <c r="E14">
-        <v>1.3</v>
-      </c>
-      <c r="F14">
-        <v>1406</v>
-      </c>
-      <c r="G14">
-        <v>8.1</v>
-      </c>
-      <c r="H14">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15">
+      <c r="E11" s="1">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1662</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>17882</v>
+      </c>
+      <c r="K11">
+        <v>-0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>900</v>
+      </c>
+      <c r="B12" s="1">
+        <v>850</v>
+      </c>
+      <c r="C12" s="1">
         <v>22</v>
       </c>
-      <c r="D15">
+      <c r="D12" s="1">
         <v>100</v>
       </c>
-      <c r="E15">
-        <v>1.3</v>
-      </c>
-      <c r="F15">
-        <v>1694</v>
-      </c>
-      <c r="G15">
-        <v>8.1</v>
-      </c>
-      <c r="H15">
-        <v>39</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="E12" s="1">
+        <v>1.3185</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2109</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>13993</v>
+      </c>
+      <c r="K12">
+        <v>-0.502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
         <v>33</v>
       </c>
-      <c r="D16">
+      <c r="D13" s="1">
         <v>155</v>
       </c>
-      <c r="E16">
-        <v>1.31</v>
-      </c>
-      <c r="F16">
-        <v>2461</v>
-      </c>
-      <c r="G16">
-        <v>12.1</v>
-      </c>
-      <c r="H16">
-        <v>58.1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>65</v>
-      </c>
-      <c r="E17">
-        <v>1.29</v>
-      </c>
-      <c r="F17">
-        <v>978</v>
-      </c>
-      <c r="G17">
-        <v>5.6</v>
-      </c>
-      <c r="H17">
-        <v>24.3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>65</v>
-      </c>
-      <c r="E18">
-        <v>1.3</v>
-      </c>
-      <c r="F18">
-        <v>1345</v>
-      </c>
-      <c r="G18">
-        <v>5.6</v>
-      </c>
-      <c r="H18">
-        <v>31.5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>900</v>
-      </c>
-      <c r="B19">
-        <v>850</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>1.3</v>
-      </c>
-      <c r="F19">
-        <v>1961</v>
-      </c>
-      <c r="G19">
-        <v>11.3</v>
-      </c>
-      <c r="H19">
-        <v>49.9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>1.32</v>
-      </c>
-      <c r="F20">
-        <v>2355</v>
-      </c>
-      <c r="G20">
-        <v>11.3</v>
-      </c>
-      <c r="H20">
-        <v>57.8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>155</v>
-      </c>
-      <c r="E21">
-        <v>1.32</v>
-      </c>
-      <c r="F21">
-        <v>3315</v>
-      </c>
-      <c r="G21">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H21">
-        <v>86.2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>1.3179000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2930</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>75</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>15007</v>
+      </c>
+      <c r="K13">
+        <v>-0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2350,7 +2272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E6B0A8-2D67-4CB1-A187-32AB4D6088EE}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -2998,4 +2920,547 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4AC88-38D9-4C84-AD36-EA16909D4100}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>1.25</v>
+      </c>
+      <c r="F2">
+        <v>436</v>
+      </c>
+      <c r="G2">
+        <v>2.7</v>
+      </c>
+      <c r="H2">
+        <v>11.6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>1.25</v>
+      </c>
+      <c r="F3">
+        <v>605</v>
+      </c>
+      <c r="G3">
+        <v>2.7</v>
+      </c>
+      <c r="H3">
+        <v>14.1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>350</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1.27</v>
+      </c>
+      <c r="F4">
+        <v>915</v>
+      </c>
+      <c r="G4">
+        <v>5.4</v>
+      </c>
+      <c r="H4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>1.28</v>
+      </c>
+      <c r="F5">
+        <v>1102</v>
+      </c>
+      <c r="G5">
+        <v>5.4</v>
+      </c>
+      <c r="H5">
+        <v>23.1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>155</v>
+      </c>
+      <c r="E6">
+        <v>1.3</v>
+      </c>
+      <c r="F6">
+        <v>1566</v>
+      </c>
+      <c r="G6">
+        <v>8.1</v>
+      </c>
+      <c r="H6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>1.25</v>
+      </c>
+      <c r="F7">
+        <v>586</v>
+      </c>
+      <c r="G7">
+        <v>3.5</v>
+      </c>
+      <c r="H7">
+        <v>15.2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>1.27</v>
+      </c>
+      <c r="F8">
+        <v>808</v>
+      </c>
+      <c r="G8">
+        <v>3.5</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>450</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1.3</v>
+      </c>
+      <c r="F9">
+        <v>1212</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>28.5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1.29</v>
+      </c>
+      <c r="F10">
+        <v>1461</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>155</v>
+      </c>
+      <c r="E11">
+        <v>1.31</v>
+      </c>
+      <c r="F11">
+        <v>2124</v>
+      </c>
+      <c r="G11">
+        <v>10.5</v>
+      </c>
+      <c r="H11">
+        <v>48.7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>1.27</v>
+      </c>
+      <c r="F12">
+        <v>683</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>1.28</v>
+      </c>
+      <c r="F13">
+        <v>943</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>22.1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>600</v>
+      </c>
+      <c r="B14">
+        <v>550</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1.3</v>
+      </c>
+      <c r="F14">
+        <v>1406</v>
+      </c>
+      <c r="G14">
+        <v>8.1</v>
+      </c>
+      <c r="H14">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1.3</v>
+      </c>
+      <c r="F15">
+        <v>1694</v>
+      </c>
+      <c r="G15">
+        <v>8.1</v>
+      </c>
+      <c r="H15">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>155</v>
+      </c>
+      <c r="E16">
+        <v>1.31</v>
+      </c>
+      <c r="F16">
+        <v>2461</v>
+      </c>
+      <c r="G16">
+        <v>12.1</v>
+      </c>
+      <c r="H16">
+        <v>58.1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>1.29</v>
+      </c>
+      <c r="F17">
+        <v>978</v>
+      </c>
+      <c r="G17">
+        <v>5.6</v>
+      </c>
+      <c r="H17">
+        <v>24.3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>1.3</v>
+      </c>
+      <c r="F18">
+        <v>1345</v>
+      </c>
+      <c r="G18">
+        <v>5.6</v>
+      </c>
+      <c r="H18">
+        <v>31.5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>850</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>1.3</v>
+      </c>
+      <c r="F19">
+        <v>1961</v>
+      </c>
+      <c r="G19">
+        <v>11.3</v>
+      </c>
+      <c r="H19">
+        <v>49.9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>1.32</v>
+      </c>
+      <c r="F20">
+        <v>2355</v>
+      </c>
+      <c r="G20">
+        <v>11.3</v>
+      </c>
+      <c r="H20">
+        <v>57.8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>155</v>
+      </c>
+      <c r="E21">
+        <v>1.32</v>
+      </c>
+      <c r="F21">
+        <v>3315</v>
+      </c>
+      <c r="G21">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H21">
+        <v>86.2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bim2sim/plugins/PluginHydraulicSystem/bim2sim_hydraulicsystem/assets/hydraulic_components.xlsx
+++ b/bim2sim/plugins/PluginHydraulicSystem/bim2sim_hydraulicsystem/assets/hydraulic_components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dja-jho\Git\BIM2SIM\bim2sim\plugins\PluginHydraulicSystem\bim2sim_hydraulicsystem\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0AA8FD-BA87-4C97-99DB-5812BCE1B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C020A7D8-DB95-4CD2-BFFD-8FEEC6696853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AA4435EC-6D29-4471-A9A3-A3CE4E49EB19}"/>
   </bookViews>
@@ -1820,7 +1820,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
